--- a/data/sample_data.xlsx
+++ b/data/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takekidamao/Desktop/web/shift_sceduler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7249D14-55B2-DE4E-BDA7-AA91F62DFE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DA7ABA-5609-B04D-B304-2572A54E7E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{27E519D0-F719-FF41-A5FA-2C4FDC6E4357}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="72">
   <si>
     <t>9日（月）</t>
   </si>
@@ -327,6 +327,19 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフト希望の日付には(曜日)を記入してください。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -355,12 +368,16 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2287,7 +2304,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -4478,10 +4495,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A016F9B1-E063-DC40-8147-2D9F429CF179}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4516,6 +4533,11 @@
         <v>70</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
